--- a/data/trans_orig/P72-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P72-Clase-trans_orig.xlsx
@@ -5825,7 +5825,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -13214,7 +13214,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -20603,7 +20603,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
